--- a/biology/Médecine/1110_en_santé_et_médecine/1110_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1110_en_santé_et_médecine/1110_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1110_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1110_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1110 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1110_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1110_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon dom Grenier, fondation à Compiègne, par le roi Louis VI le Gros, d'une maladrerie Saint-Ladre ou Saint-Lazare près de la porte de Pierrefonds, à l'endroit appelé aujourd'hui cour de la Madeleine[1].
-Fondation, sur la route de Paris à Saint-Denis, d'une léproserie qui est à l'origine de la prison, puis de l'hôpital Saint-Lazare, définitivement fermé en 1998 et dont la chapelle sert aujourd'hui d'amphithéâtre à la faculté de médecine[2].
-Avant 1110 : des laïcs fondent à Angers une aumônerie Saint-Benoît probablement située dans le quartier de la Doutre, mais dont rien n'a été conservé[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon dom Grenier, fondation à Compiègne, par le roi Louis VI le Gros, d'une maladrerie Saint-Ladre ou Saint-Lazare près de la porte de Pierrefonds, à l'endroit appelé aujourd'hui cour de la Madeleine.
+Fondation, sur la route de Paris à Saint-Denis, d'une léproserie qui est à l'origine de la prison, puis de l'hôpital Saint-Lazare, définitivement fermé en 1998 et dont la chapelle sert aujourd'hui d'amphithéâtre à la faculté de médecine.
+Avant 1110 : des laïcs fondent à Angers une aumônerie Saint-Benoît probablement située dans le quartier de la Doutre, mais dont rien n'a été conservé.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1110_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1110_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Al-Jurjani (en) († 1136), médecin à Ispahan sous le règne des Khwârezm-Shahs, achève la première encyclopédie médicale rédigée en persan, le Zakhira-i Khwarizmshah (« Trésor du roi du Khwarezm »), ouvrage très  influencé par le Canon d'Avicenne[4],[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Al-Jurjani (en) († 1136), médecin à Ispahan sous le règne des Khwârezm-Shahs, achève la première encyclopédie médicale rédigée en persan, le Zakhira-i Khwarizmshah (« Trésor du roi du Khwarezm »), ouvrage très  influencé par le Canon d'Avicenne,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1110_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1110_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1110-1161 : fl. Nizami Aruzi (en), écrivain et poète persan et, selon ses propres écrits, astronome et médecin, auteur en tout cas, en 1157, de « Quatre Discours » (Chahar maqala) dont le dernier porte sur la médecine[6],[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1110-1161 : fl. Nizami Aruzi (en), écrivain et poète persan et, selon ses propres écrits, astronome et médecin, auteur en tout cas, en 1157, de « Quatre Discours » (Chahar maqala) dont le dernier porte sur la médecine,.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1110_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1110_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,11 +621,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1110 : Abraham ibn Daoud (mort vers 1180), médecin[8] et historien andalou[9].
-1109 ? ou 1110[10],[11] ? : Ibn Tufayl (mort en 1185), philosophe, astronome, médecin et mathématicien andalou.
-1110, 1118 ou 1120 : Mkhitar de Her (mort en  1200), médecin, physiologiste et astronome, généralement considéré comme « le père de la médecine classique en  Arménie[12],[13] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1110 : Abraham ibn Daoud (mort vers 1180), médecin et historien andalou.
+1109 ? ou 1110, ? : Ibn Tufayl (mort en 1185), philosophe, astronome, médecin et mathématicien andalou.
+1110, 1118 ou 1120 : Mkhitar de Her (mort en  1200), médecin, physiologiste et astronome, généralement considéré comme « le père de la médecine classique en  Arménie, ».</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1110_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1110_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,9 +655,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pedro  de Alfonso (né à une date inconnue), médecin, astronome, traducteur de l'arabe, au service du roi d'Angleterre Henri Ier[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedro  de Alfonso (né à une date inconnue), médecin, astronome, traducteur de l'arabe, au service du roi d'Angleterre Henri Ier.
 </t>
         </is>
       </c>
